--- a/ITM189/2013Data VisualizationCompetition_worksheetFINAL.xlsx
+++ b/ITM189/2013Data VisualizationCompetition_worksheetFINAL.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="9450" windowHeight="6735" tabRatio="780" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="9450" windowHeight="6735" tabRatio="780" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="9" r:id="rId1"/>
@@ -13,13 +13,16 @@
     <sheet name="Scenario #3" sheetId="12" r:id="rId4"/>
     <sheet name="Scenario #4" sheetId="13" r:id="rId5"/>
     <sheet name="Scenario #5" sheetId="14" r:id="rId6"/>
+    <sheet name="Scenario 1 Data" sheetId="15" r:id="rId7"/>
+    <sheet name="Sc 2 data" sheetId="16" r:id="rId8"/>
+    <sheet name="sc 3" sheetId="17" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="206">
   <si>
     <t>This competition consists of five business scenarios that require visual representations of data to solve real business problems. You may submit solutions to all five scenarios or only to those that interest you. Those who respond to all five will be eligible to win the overall prize. Everyone who submits a solution to a scenario will be eligible to win the prize for that particular scenario. The winning solution for each scenario will be featured in one of my monthly articles in the Data Visualization Edition of the Business Intelligence Newsletter. Even some of those solutions that do not win will appear in articles, in many cases to illustrate practices that don't work effectively.</t>
   </si>
@@ -637,6 +640,90 @@
   <si>
     <t>2013 Data Visualization Competition for ITM189</t>
   </si>
+  <si>
+    <t>Total Budget</t>
+  </si>
+  <si>
+    <t>Total Actual</t>
+  </si>
+  <si>
+    <t>Budget-Jan</t>
+  </si>
+  <si>
+    <t>Actual-Jan</t>
+  </si>
+  <si>
+    <t>Budget-Feb</t>
+  </si>
+  <si>
+    <t>Actual-Feb</t>
+  </si>
+  <si>
+    <t>Budget-Mar</t>
+  </si>
+  <si>
+    <t>Actual-Mar</t>
+  </si>
+  <si>
+    <t>Budget-Apr</t>
+  </si>
+  <si>
+    <t>Actual-Apr</t>
+  </si>
+  <si>
+    <t>Budget-May</t>
+  </si>
+  <si>
+    <t>Actual-May</t>
+  </si>
+  <si>
+    <t>Budget-Jun</t>
+  </si>
+  <si>
+    <t>Actual-Jun</t>
+  </si>
+  <si>
+    <t>Budget-Jul</t>
+  </si>
+  <si>
+    <t>Actual-Jul</t>
+  </si>
+  <si>
+    <t>Budget-Aug</t>
+  </si>
+  <si>
+    <t>Actual-Aug</t>
+  </si>
+  <si>
+    <t>Budget-Sep</t>
+  </si>
+  <si>
+    <t>Actual-Sep</t>
+  </si>
+  <si>
+    <t>Budget-Oct</t>
+  </si>
+  <si>
+    <t>Actual-Oct</t>
+  </si>
+  <si>
+    <t>Budget-Nov</t>
+  </si>
+  <si>
+    <t>Actual-Nov</t>
+  </si>
+  <si>
+    <t>Budget-Dec</t>
+  </si>
+  <si>
+    <t>Actual-Dec</t>
+  </si>
+  <si>
+    <t>Starting Balance</t>
+  </si>
+  <si>
+    <t>Expense</t>
+  </si>
 </sst>
 </file>
 
@@ -644,8 +731,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="170" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -798,7 +885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -887,7 +974,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -968,9 +1055,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -994,6 +1081,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1358,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1487,8 +1587,8 @@
   </sheetPr>
   <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2638,7 +2738,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2857,7 +2957,9 @@
   </sheetPr>
   <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:J84"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -4004,8 +4106,8 @@
   </sheetPr>
   <dimension ref="A1:N117"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showGridLines="0" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6572,4 +6674,3009 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AA13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="84" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="84" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="85" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="84" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="85" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1" s="85" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" s="84" t="s">
+        <v>188</v>
+      </c>
+      <c r="K1" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="L1" s="84" t="s">
+        <v>190</v>
+      </c>
+      <c r="M1" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="N1" s="84" t="s">
+        <v>192</v>
+      </c>
+      <c r="O1" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="P1" s="84" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q1" s="85" t="s">
+        <v>195</v>
+      </c>
+      <c r="R1" s="84" t="s">
+        <v>196</v>
+      </c>
+      <c r="S1" s="85" t="s">
+        <v>197</v>
+      </c>
+      <c r="T1" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="U1" s="85" t="s">
+        <v>199</v>
+      </c>
+      <c r="V1" s="84" t="s">
+        <v>200</v>
+      </c>
+      <c r="W1" s="85" t="s">
+        <v>201</v>
+      </c>
+      <c r="X1" s="84" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y1" s="85" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z1" s="83" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA1" s="83" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="21">
+        <v>150</v>
+      </c>
+      <c r="C2" s="22">
+        <v>149</v>
+      </c>
+      <c r="D2" s="23">
+        <v>150</v>
+      </c>
+      <c r="E2" s="24">
+        <v>150</v>
+      </c>
+      <c r="F2" s="23">
+        <v>150</v>
+      </c>
+      <c r="G2" s="24">
+        <v>150</v>
+      </c>
+      <c r="H2" s="23">
+        <v>152</v>
+      </c>
+      <c r="I2" s="24">
+        <v>151</v>
+      </c>
+      <c r="J2" s="23">
+        <v>152</v>
+      </c>
+      <c r="K2" s="24">
+        <v>152</v>
+      </c>
+      <c r="L2" s="23">
+        <v>152</v>
+      </c>
+      <c r="M2" s="24">
+        <v>153</v>
+      </c>
+      <c r="N2" s="23">
+        <v>152</v>
+      </c>
+      <c r="O2" s="24">
+        <v>153</v>
+      </c>
+      <c r="P2" s="23">
+        <v>152</v>
+      </c>
+      <c r="Q2" s="24">
+        <v>153</v>
+      </c>
+      <c r="R2" s="23">
+        <v>152</v>
+      </c>
+      <c r="S2" s="24">
+        <v>153</v>
+      </c>
+      <c r="T2" s="23">
+        <v>152</v>
+      </c>
+      <c r="U2" s="24">
+        <v>153</v>
+      </c>
+      <c r="V2" s="23">
+        <v>152</v>
+      </c>
+      <c r="W2" s="24">
+        <v>76</v>
+      </c>
+      <c r="X2" s="23">
+        <v>152</v>
+      </c>
+      <c r="Y2" s="24"/>
+      <c r="Z2">
+        <f>B2+D2+F2+H2+J2+L2+N2+P2+R2+T2+V2+X2</f>
+        <v>1818</v>
+      </c>
+      <c r="AA2">
+        <f>C2+E2+G2+I2+K2+M2+O2+Q2+S2+U2+W2+Y2</f>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="26">
+        <v>450</v>
+      </c>
+      <c r="C3" s="27">
+        <v>463</v>
+      </c>
+      <c r="D3" s="28">
+        <v>450</v>
+      </c>
+      <c r="E3" s="29">
+        <v>472</v>
+      </c>
+      <c r="F3" s="28">
+        <v>470</v>
+      </c>
+      <c r="G3" s="29">
+        <v>483</v>
+      </c>
+      <c r="H3" s="28">
+        <v>475</v>
+      </c>
+      <c r="I3" s="29">
+        <v>488</v>
+      </c>
+      <c r="J3" s="28">
+        <v>475</v>
+      </c>
+      <c r="K3" s="29">
+        <v>490</v>
+      </c>
+      <c r="L3" s="28">
+        <v>500</v>
+      </c>
+      <c r="M3" s="29">
+        <v>534</v>
+      </c>
+      <c r="N3" s="28">
+        <v>500</v>
+      </c>
+      <c r="O3" s="29">
+        <v>557</v>
+      </c>
+      <c r="P3" s="28">
+        <v>500</v>
+      </c>
+      <c r="Q3" s="29">
+        <v>563</v>
+      </c>
+      <c r="R3" s="28">
+        <v>500</v>
+      </c>
+      <c r="S3" s="29">
+        <v>552</v>
+      </c>
+      <c r="T3" s="28">
+        <v>500</v>
+      </c>
+      <c r="U3" s="29">
+        <v>542</v>
+      </c>
+      <c r="V3" s="28">
+        <v>500</v>
+      </c>
+      <c r="W3" s="29">
+        <v>263</v>
+      </c>
+      <c r="X3" s="28">
+        <v>500</v>
+      </c>
+      <c r="Y3" s="29"/>
+      <c r="Z3">
+        <f t="shared" ref="Z3:AA13" si="0">B3+D3+F3+H3+J3+L3+N3+P3+R3+T3+V3+X3</f>
+        <v>5820</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="0"/>
+        <v>5407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="21">
+        <v>250</v>
+      </c>
+      <c r="C4" s="22">
+        <v>246</v>
+      </c>
+      <c r="D4" s="23">
+        <v>255</v>
+      </c>
+      <c r="E4" s="24">
+        <v>253</v>
+      </c>
+      <c r="F4" s="23">
+        <v>260</v>
+      </c>
+      <c r="G4" s="24">
+        <v>375</v>
+      </c>
+      <c r="H4" s="23">
+        <v>265</v>
+      </c>
+      <c r="I4" s="24">
+        <v>376</v>
+      </c>
+      <c r="J4" s="23">
+        <v>270</v>
+      </c>
+      <c r="K4" s="24">
+        <v>384</v>
+      </c>
+      <c r="L4" s="23">
+        <v>275</v>
+      </c>
+      <c r="M4" s="24">
+        <v>388</v>
+      </c>
+      <c r="N4" s="23">
+        <v>280</v>
+      </c>
+      <c r="O4" s="24">
+        <v>394</v>
+      </c>
+      <c r="P4" s="23">
+        <v>290</v>
+      </c>
+      <c r="Q4" s="24">
+        <v>394</v>
+      </c>
+      <c r="R4" s="23">
+        <v>300</v>
+      </c>
+      <c r="S4" s="24">
+        <v>394</v>
+      </c>
+      <c r="T4" s="23">
+        <v>305</v>
+      </c>
+      <c r="U4" s="24">
+        <v>396</v>
+      </c>
+      <c r="V4" s="23">
+        <v>310</v>
+      </c>
+      <c r="W4" s="24">
+        <v>201</v>
+      </c>
+      <c r="X4" s="23">
+        <v>400</v>
+      </c>
+      <c r="Y4" s="24"/>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>3460</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="26">
+        <v>190</v>
+      </c>
+      <c r="C5" s="27">
+        <v>193</v>
+      </c>
+      <c r="D5" s="28">
+        <v>190</v>
+      </c>
+      <c r="E5" s="29">
+        <v>195</v>
+      </c>
+      <c r="F5" s="28">
+        <v>180</v>
+      </c>
+      <c r="G5" s="29">
+        <v>186</v>
+      </c>
+      <c r="H5" s="28">
+        <v>170</v>
+      </c>
+      <c r="I5" s="29">
+        <v>174</v>
+      </c>
+      <c r="J5" s="28">
+        <v>170</v>
+      </c>
+      <c r="K5" s="29">
+        <v>166</v>
+      </c>
+      <c r="L5" s="28">
+        <v>180</v>
+      </c>
+      <c r="M5" s="29">
+        <v>168</v>
+      </c>
+      <c r="N5" s="28">
+        <v>190</v>
+      </c>
+      <c r="O5" s="29">
+        <v>200</v>
+      </c>
+      <c r="P5" s="28">
+        <v>200</v>
+      </c>
+      <c r="Q5" s="29">
+        <v>210</v>
+      </c>
+      <c r="R5" s="28">
+        <v>200</v>
+      </c>
+      <c r="S5" s="29">
+        <v>208</v>
+      </c>
+      <c r="T5" s="28">
+        <v>190</v>
+      </c>
+      <c r="U5" s="29">
+        <v>183</v>
+      </c>
+      <c r="V5" s="28">
+        <v>190</v>
+      </c>
+      <c r="W5" s="29">
+        <v>87</v>
+      </c>
+      <c r="X5" s="28">
+        <v>200</v>
+      </c>
+      <c r="Y5" s="29"/>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>2250</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="21">
+        <v>100</v>
+      </c>
+      <c r="C6" s="22">
+        <v>96</v>
+      </c>
+      <c r="D6" s="23">
+        <v>100</v>
+      </c>
+      <c r="E6" s="24">
+        <v>95</v>
+      </c>
+      <c r="F6" s="23">
+        <v>100</v>
+      </c>
+      <c r="G6" s="24">
+        <v>95</v>
+      </c>
+      <c r="H6" s="23">
+        <v>110</v>
+      </c>
+      <c r="I6" s="24">
+        <v>98</v>
+      </c>
+      <c r="J6" s="23">
+        <v>110</v>
+      </c>
+      <c r="K6" s="24">
+        <v>101</v>
+      </c>
+      <c r="L6" s="23">
+        <v>110</v>
+      </c>
+      <c r="M6" s="24">
+        <v>109</v>
+      </c>
+      <c r="N6" s="23">
+        <v>120</v>
+      </c>
+      <c r="O6" s="24">
+        <v>110</v>
+      </c>
+      <c r="P6" s="23">
+        <v>120</v>
+      </c>
+      <c r="Q6" s="24">
+        <v>112</v>
+      </c>
+      <c r="R6" s="23">
+        <v>120</v>
+      </c>
+      <c r="S6" s="24">
+        <v>112</v>
+      </c>
+      <c r="T6" s="23">
+        <v>120</v>
+      </c>
+      <c r="U6" s="24">
+        <v>113</v>
+      </c>
+      <c r="V6" s="23">
+        <v>120</v>
+      </c>
+      <c r="W6" s="24">
+        <v>66</v>
+      </c>
+      <c r="X6" s="23">
+        <v>120</v>
+      </c>
+      <c r="Y6" s="24"/>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>1350</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="26">
+        <v>50</v>
+      </c>
+      <c r="C7" s="27">
+        <v>51</v>
+      </c>
+      <c r="D7" s="28">
+        <v>50</v>
+      </c>
+      <c r="E7" s="29">
+        <v>64</v>
+      </c>
+      <c r="F7" s="28">
+        <v>50</v>
+      </c>
+      <c r="G7" s="29">
+        <v>58</v>
+      </c>
+      <c r="H7" s="28">
+        <v>51</v>
+      </c>
+      <c r="I7" s="29">
+        <v>53</v>
+      </c>
+      <c r="J7" s="28">
+        <v>51</v>
+      </c>
+      <c r="K7" s="29">
+        <v>50</v>
+      </c>
+      <c r="L7" s="28">
+        <v>51</v>
+      </c>
+      <c r="M7" s="29">
+        <v>50</v>
+      </c>
+      <c r="N7" s="28">
+        <v>52</v>
+      </c>
+      <c r="O7" s="29">
+        <v>48</v>
+      </c>
+      <c r="P7" s="28">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="29">
+        <v>47</v>
+      </c>
+      <c r="R7" s="28">
+        <v>52</v>
+      </c>
+      <c r="S7" s="29">
+        <v>49</v>
+      </c>
+      <c r="T7" s="28">
+        <v>53</v>
+      </c>
+      <c r="U7" s="29">
+        <v>50</v>
+      </c>
+      <c r="V7" s="28">
+        <v>53</v>
+      </c>
+      <c r="W7" s="29">
+        <v>25</v>
+      </c>
+      <c r="X7" s="28">
+        <v>53</v>
+      </c>
+      <c r="Y7" s="29"/>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>618</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="21">
+        <v>500</v>
+      </c>
+      <c r="C8" s="22">
+        <v>512</v>
+      </c>
+      <c r="D8" s="23">
+        <v>550</v>
+      </c>
+      <c r="E8" s="24">
+        <v>516</v>
+      </c>
+      <c r="F8" s="23">
+        <v>510</v>
+      </c>
+      <c r="G8" s="24">
+        <v>572</v>
+      </c>
+      <c r="H8" s="23">
+        <v>510</v>
+      </c>
+      <c r="I8" s="24">
+        <v>534</v>
+      </c>
+      <c r="J8" s="23">
+        <v>520</v>
+      </c>
+      <c r="K8" s="24">
+        <v>536</v>
+      </c>
+      <c r="L8" s="23">
+        <v>520</v>
+      </c>
+      <c r="M8" s="24">
+        <v>567</v>
+      </c>
+      <c r="N8" s="23">
+        <v>600</v>
+      </c>
+      <c r="O8" s="24">
+        <v>636</v>
+      </c>
+      <c r="P8" s="23">
+        <v>520</v>
+      </c>
+      <c r="Q8" s="24">
+        <v>578</v>
+      </c>
+      <c r="R8" s="23">
+        <v>520</v>
+      </c>
+      <c r="S8" s="24">
+        <v>547</v>
+      </c>
+      <c r="T8" s="23">
+        <v>530</v>
+      </c>
+      <c r="U8" s="24">
+        <v>556</v>
+      </c>
+      <c r="V8" s="23">
+        <v>530</v>
+      </c>
+      <c r="W8" s="24">
+        <v>287</v>
+      </c>
+      <c r="X8" s="23">
+        <v>530</v>
+      </c>
+      <c r="Y8" s="24"/>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>6340</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>5841</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="26">
+        <v>100</v>
+      </c>
+      <c r="C9" s="27">
+        <v>99</v>
+      </c>
+      <c r="D9" s="28">
+        <v>100</v>
+      </c>
+      <c r="E9" s="29">
+        <v>97</v>
+      </c>
+      <c r="F9" s="28">
+        <v>100</v>
+      </c>
+      <c r="G9" s="29">
+        <v>95</v>
+      </c>
+      <c r="H9" s="28">
+        <v>100</v>
+      </c>
+      <c r="I9" s="29">
+        <v>97</v>
+      </c>
+      <c r="J9" s="28">
+        <v>100</v>
+      </c>
+      <c r="K9" s="29">
+        <v>104</v>
+      </c>
+      <c r="L9" s="28">
+        <v>100</v>
+      </c>
+      <c r="M9" s="29">
+        <v>152</v>
+      </c>
+      <c r="N9" s="28">
+        <v>100</v>
+      </c>
+      <c r="O9" s="29">
+        <v>89</v>
+      </c>
+      <c r="P9" s="28">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="29">
+        <v>90</v>
+      </c>
+      <c r="R9" s="28">
+        <v>100</v>
+      </c>
+      <c r="S9" s="29">
+        <v>86</v>
+      </c>
+      <c r="T9" s="28">
+        <v>100</v>
+      </c>
+      <c r="U9" s="29">
+        <v>93</v>
+      </c>
+      <c r="V9" s="28">
+        <v>150</v>
+      </c>
+      <c r="W9" s="29">
+        <v>73</v>
+      </c>
+      <c r="X9" s="28">
+        <v>150</v>
+      </c>
+      <c r="Y9" s="29"/>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="21">
+        <v>400</v>
+      </c>
+      <c r="C10" s="22">
+        <v>389</v>
+      </c>
+      <c r="D10" s="23">
+        <v>402</v>
+      </c>
+      <c r="E10" s="24">
+        <v>390</v>
+      </c>
+      <c r="F10" s="23">
+        <v>404</v>
+      </c>
+      <c r="G10" s="24">
+        <v>392</v>
+      </c>
+      <c r="H10" s="23">
+        <v>406</v>
+      </c>
+      <c r="I10" s="24">
+        <v>393</v>
+      </c>
+      <c r="J10" s="23">
+        <v>408</v>
+      </c>
+      <c r="K10" s="24">
+        <v>400</v>
+      </c>
+      <c r="L10" s="23">
+        <v>410</v>
+      </c>
+      <c r="M10" s="24">
+        <v>408</v>
+      </c>
+      <c r="N10" s="23">
+        <v>412</v>
+      </c>
+      <c r="O10" s="24">
+        <v>416</v>
+      </c>
+      <c r="P10" s="23">
+        <v>414</v>
+      </c>
+      <c r="Q10" s="24">
+        <v>418</v>
+      </c>
+      <c r="R10" s="23">
+        <v>416</v>
+      </c>
+      <c r="S10" s="24">
+        <v>415</v>
+      </c>
+      <c r="T10" s="23">
+        <v>418</v>
+      </c>
+      <c r="U10" s="24">
+        <v>416</v>
+      </c>
+      <c r="V10" s="23">
+        <v>420</v>
+      </c>
+      <c r="W10" s="24">
+        <v>206</v>
+      </c>
+      <c r="X10" s="23">
+        <v>422</v>
+      </c>
+      <c r="Y10" s="24"/>
+      <c r="Z10">
+        <f t="shared" si="0"/>
+        <v>4932</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="0"/>
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="26">
+        <v>510</v>
+      </c>
+      <c r="C11" s="27">
+        <v>524</v>
+      </c>
+      <c r="D11" s="28">
+        <v>475</v>
+      </c>
+      <c r="E11" s="29">
+        <v>458</v>
+      </c>
+      <c r="F11" s="28">
+        <v>475</v>
+      </c>
+      <c r="G11" s="29">
+        <v>467</v>
+      </c>
+      <c r="H11" s="28">
+        <v>505</v>
+      </c>
+      <c r="I11" s="29">
+        <v>503</v>
+      </c>
+      <c r="J11" s="28">
+        <v>480</v>
+      </c>
+      <c r="K11" s="29">
+        <v>489</v>
+      </c>
+      <c r="L11" s="28">
+        <v>480</v>
+      </c>
+      <c r="M11" s="29">
+        <v>480</v>
+      </c>
+      <c r="N11" s="28">
+        <v>510</v>
+      </c>
+      <c r="O11" s="29">
+        <v>512</v>
+      </c>
+      <c r="P11" s="28">
+        <v>485</v>
+      </c>
+      <c r="Q11" s="29">
+        <v>479</v>
+      </c>
+      <c r="R11" s="28">
+        <v>485</v>
+      </c>
+      <c r="S11" s="29">
+        <v>484</v>
+      </c>
+      <c r="T11" s="28">
+        <v>515</v>
+      </c>
+      <c r="U11" s="29">
+        <v>514</v>
+      </c>
+      <c r="V11" s="28">
+        <v>490</v>
+      </c>
+      <c r="W11" s="29">
+        <v>247</v>
+      </c>
+      <c r="X11" s="28">
+        <v>490</v>
+      </c>
+      <c r="Y11" s="29"/>
+      <c r="Z11">
+        <f t="shared" si="0"/>
+        <v>5900</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="0"/>
+        <v>5157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="21">
+        <v>35</v>
+      </c>
+      <c r="C12" s="22">
+        <v>29</v>
+      </c>
+      <c r="D12" s="23">
+        <v>35</v>
+      </c>
+      <c r="E12" s="24">
+        <v>28</v>
+      </c>
+      <c r="F12" s="23">
+        <v>35</v>
+      </c>
+      <c r="G12" s="24">
+        <v>28</v>
+      </c>
+      <c r="H12" s="23">
+        <v>36</v>
+      </c>
+      <c r="I12" s="24">
+        <v>27</v>
+      </c>
+      <c r="J12" s="23">
+        <v>36</v>
+      </c>
+      <c r="K12" s="24">
+        <v>26</v>
+      </c>
+      <c r="L12" s="23">
+        <v>36</v>
+      </c>
+      <c r="M12" s="24">
+        <v>26</v>
+      </c>
+      <c r="N12" s="23">
+        <v>37</v>
+      </c>
+      <c r="O12" s="24">
+        <v>25</v>
+      </c>
+      <c r="P12" s="23">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="24">
+        <v>25</v>
+      </c>
+      <c r="R12" s="23">
+        <v>37</v>
+      </c>
+      <c r="S12" s="24">
+        <v>26</v>
+      </c>
+      <c r="T12" s="23">
+        <v>38</v>
+      </c>
+      <c r="U12" s="24">
+        <v>25</v>
+      </c>
+      <c r="V12" s="23">
+        <v>38</v>
+      </c>
+      <c r="W12" s="24">
+        <v>13</v>
+      </c>
+      <c r="X12" s="23">
+        <v>38</v>
+      </c>
+      <c r="Y12" s="24"/>
+      <c r="Z12">
+        <f t="shared" si="0"/>
+        <v>438</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="0"/>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="26">
+        <v>15</v>
+      </c>
+      <c r="C13" s="27">
+        <v>13</v>
+      </c>
+      <c r="D13" s="28">
+        <v>15</v>
+      </c>
+      <c r="E13" s="29">
+        <v>13</v>
+      </c>
+      <c r="F13" s="28">
+        <v>15</v>
+      </c>
+      <c r="G13" s="29">
+        <v>14</v>
+      </c>
+      <c r="H13" s="28">
+        <v>15</v>
+      </c>
+      <c r="I13" s="29">
+        <v>18</v>
+      </c>
+      <c r="J13" s="28">
+        <v>15</v>
+      </c>
+      <c r="K13" s="29">
+        <v>16</v>
+      </c>
+      <c r="L13" s="28">
+        <v>15</v>
+      </c>
+      <c r="M13" s="29">
+        <v>14</v>
+      </c>
+      <c r="N13" s="28">
+        <v>15</v>
+      </c>
+      <c r="O13" s="29">
+        <v>14</v>
+      </c>
+      <c r="P13" s="28">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="29">
+        <v>15</v>
+      </c>
+      <c r="R13" s="28">
+        <v>15</v>
+      </c>
+      <c r="S13" s="29">
+        <v>15</v>
+      </c>
+      <c r="T13" s="28">
+        <v>15</v>
+      </c>
+      <c r="U13" s="29">
+        <v>15</v>
+      </c>
+      <c r="V13" s="28">
+        <v>15</v>
+      </c>
+      <c r="W13" s="29">
+        <v>7</v>
+      </c>
+      <c r="X13" s="28">
+        <v>15</v>
+      </c>
+      <c r="Y13" s="29"/>
+      <c r="Z13">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="86">
+        <v>38781</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="37">
+        <v>4218.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="40">
+        <v>38781</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="41">
+        <v>-2580.19</v>
+      </c>
+      <c r="D3">
+        <v>2580.19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="40">
+        <v>38789</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="41">
+        <v>-305</v>
+      </c>
+      <c r="D4">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="40">
+        <v>38791</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="41">
+        <v>3155.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="40">
+        <v>38801</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="41">
+        <v>-1010.17</v>
+      </c>
+      <c r="D6">
+        <v>1010.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="40">
+        <v>38804</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="41">
+        <v>-1748.52</v>
+      </c>
+      <c r="D7">
+        <v>1748.52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="40">
+        <v>38805</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="41">
+        <v>-107.35</v>
+      </c>
+      <c r="D8">
+        <v>107.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="51">
+      <c r="A1" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="49">
+        <v>493700</v>
+      </c>
+      <c r="C2" s="49">
+        <v>450000</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>539500</v>
+      </c>
+      <c r="F2">
+        <v>550500</v>
+      </c>
+      <c r="G2">
+        <v>540000</v>
+      </c>
+      <c r="H2">
+        <v>547250</v>
+      </c>
+      <c r="O2" s="44"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="49">
+        <v>510500</v>
+      </c>
+      <c r="C3" s="49">
+        <v>500000</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>539500</v>
+      </c>
+      <c r="F3">
+        <v>550500</v>
+      </c>
+      <c r="G3">
+        <v>540000</v>
+      </c>
+      <c r="H3">
+        <v>547250</v>
+      </c>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="49">
+        <v>524995</v>
+      </c>
+      <c r="C4" s="49">
+        <v>435000</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>539500</v>
+      </c>
+      <c r="F4">
+        <v>550500</v>
+      </c>
+      <c r="G4">
+        <v>540000</v>
+      </c>
+      <c r="H4">
+        <v>547250</v>
+      </c>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="49">
+        <v>539900</v>
+      </c>
+      <c r="C5" s="49">
+        <v>525000</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>539500</v>
+      </c>
+      <c r="F5">
+        <v>550500</v>
+      </c>
+      <c r="G5">
+        <v>540000</v>
+      </c>
+      <c r="H5">
+        <v>547250</v>
+      </c>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="49">
+        <v>549500</v>
+      </c>
+      <c r="C6" s="49">
+        <v>525000</v>
+      </c>
+      <c r="D6">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>539500</v>
+      </c>
+      <c r="F6">
+        <v>550500</v>
+      </c>
+      <c r="G6">
+        <v>540000</v>
+      </c>
+      <c r="H6">
+        <v>547250</v>
+      </c>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="49">
+        <v>550000</v>
+      </c>
+      <c r="C7" s="49">
+        <v>529500</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>539500</v>
+      </c>
+      <c r="F7">
+        <v>550500</v>
+      </c>
+      <c r="G7">
+        <v>540000</v>
+      </c>
+      <c r="H7">
+        <v>547250</v>
+      </c>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="49">
+        <v>551000</v>
+      </c>
+      <c r="C8" s="49">
+        <v>565000</v>
+      </c>
+      <c r="D8">
+        <v>63</v>
+      </c>
+      <c r="E8">
+        <v>539500</v>
+      </c>
+      <c r="F8">
+        <v>550500</v>
+      </c>
+      <c r="G8">
+        <v>540000</v>
+      </c>
+      <c r="H8">
+        <v>547250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="49">
+        <v>558000</v>
+      </c>
+      <c r="C9" s="49">
+        <v>590000</v>
+      </c>
+      <c r="D9">
+        <v>47</v>
+      </c>
+      <c r="E9">
+        <v>539500</v>
+      </c>
+      <c r="F9">
+        <v>550500</v>
+      </c>
+      <c r="G9">
+        <v>540000</v>
+      </c>
+      <c r="H9">
+        <v>547250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="49">
+        <v>562500</v>
+      </c>
+      <c r="C10" s="49">
+        <v>575000</v>
+      </c>
+      <c r="D10">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>539500</v>
+      </c>
+      <c r="F10">
+        <v>550500</v>
+      </c>
+      <c r="G10">
+        <v>540000</v>
+      </c>
+      <c r="H10">
+        <v>547250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="49">
+        <v>575250</v>
+      </c>
+      <c r="C11" s="49">
+        <v>579999</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>539500</v>
+      </c>
+      <c r="F11">
+        <v>550500</v>
+      </c>
+      <c r="G11">
+        <v>540000</v>
+      </c>
+      <c r="H11">
+        <v>547250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="49">
+        <v>580000</v>
+      </c>
+      <c r="C12" s="49">
+        <v>580000</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>539500</v>
+      </c>
+      <c r="F12">
+        <v>550500</v>
+      </c>
+      <c r="G12">
+        <v>540000</v>
+      </c>
+      <c r="H12">
+        <v>547250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="49">
+        <v>600000</v>
+      </c>
+      <c r="C13" s="49">
+        <v>579000</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>539500</v>
+      </c>
+      <c r="F13">
+        <v>550500</v>
+      </c>
+      <c r="G13">
+        <v>540000</v>
+      </c>
+      <c r="H13">
+        <v>547250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="49">
+        <v>1003000</v>
+      </c>
+      <c r="C14" s="49">
+        <v>1015000</v>
+      </c>
+      <c r="D14">
+        <v>45</v>
+      </c>
+      <c r="E14">
+        <v>937000</v>
+      </c>
+      <c r="F14">
+        <v>1035000</v>
+      </c>
+      <c r="G14">
+        <v>900000</v>
+      </c>
+      <c r="H14">
+        <v>1150000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="49">
+        <v>1013500</v>
+      </c>
+      <c r="C15" s="49">
+        <v>1010000</v>
+      </c>
+      <c r="D15">
+        <v>36</v>
+      </c>
+      <c r="E15">
+        <v>937000</v>
+      </c>
+      <c r="F15">
+        <v>1035000</v>
+      </c>
+      <c r="G15">
+        <v>900000</v>
+      </c>
+      <c r="H15">
+        <v>1150000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="49">
+        <v>1025500</v>
+      </c>
+      <c r="C16" s="49">
+        <v>1135000</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>937000</v>
+      </c>
+      <c r="F16">
+        <v>1035000</v>
+      </c>
+      <c r="G16">
+        <v>900000</v>
+      </c>
+      <c r="H16">
+        <v>1150000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="49">
+        <v>1035000</v>
+      </c>
+      <c r="C17" s="49">
+        <v>1150000</v>
+      </c>
+      <c r="D17">
+        <v>43</v>
+      </c>
+      <c r="E17">
+        <v>937000</v>
+      </c>
+      <c r="F17">
+        <v>1035000</v>
+      </c>
+      <c r="G17">
+        <v>900000</v>
+      </c>
+      <c r="H17">
+        <v>1150000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="49">
+        <v>1190500</v>
+      </c>
+      <c r="C18" s="49">
+        <v>1250000</v>
+      </c>
+      <c r="D18">
+        <v>48</v>
+      </c>
+      <c r="E18">
+        <v>937000</v>
+      </c>
+      <c r="F18">
+        <v>1035000</v>
+      </c>
+      <c r="G18">
+        <v>900000</v>
+      </c>
+      <c r="H18">
+        <v>1150000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="49">
+        <v>1250000</v>
+      </c>
+      <c r="C19" s="49">
+        <v>1299999</v>
+      </c>
+      <c r="D19">
+        <v>38</v>
+      </c>
+      <c r="E19">
+        <v>937000</v>
+      </c>
+      <c r="F19">
+        <v>1035000</v>
+      </c>
+      <c r="G19">
+        <v>900000</v>
+      </c>
+      <c r="H19">
+        <v>1150000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="49">
+        <v>1625000</v>
+      </c>
+      <c r="C20" s="49">
+        <v>1699999</v>
+      </c>
+      <c r="D20">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>937000</v>
+      </c>
+      <c r="F20">
+        <v>1035000</v>
+      </c>
+      <c r="G20">
+        <v>900000</v>
+      </c>
+      <c r="H20">
+        <v>1150000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="49">
+        <v>543000</v>
+      </c>
+      <c r="C21" s="49">
+        <v>543000</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>654500</v>
+      </c>
+      <c r="F21">
+        <v>687250</v>
+      </c>
+      <c r="G21">
+        <v>649000</v>
+      </c>
+      <c r="H21">
+        <v>729500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="49">
+        <v>559500</v>
+      </c>
+      <c r="C22" s="49">
+        <v>560000</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>654500</v>
+      </c>
+      <c r="F22">
+        <v>687250</v>
+      </c>
+      <c r="G22">
+        <v>649000</v>
+      </c>
+      <c r="H22">
+        <v>729500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="49">
+        <v>599500</v>
+      </c>
+      <c r="C23" s="49">
+        <v>605000</v>
+      </c>
+      <c r="D23">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>654500</v>
+      </c>
+      <c r="F23">
+        <v>687250</v>
+      </c>
+      <c r="G23">
+        <v>649000</v>
+      </c>
+      <c r="H23">
+        <v>729500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="49">
+        <v>609000</v>
+      </c>
+      <c r="C24" s="49">
+        <v>615000</v>
+      </c>
+      <c r="D24">
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <v>654500</v>
+      </c>
+      <c r="F24">
+        <v>687250</v>
+      </c>
+      <c r="G24">
+        <v>649000</v>
+      </c>
+      <c r="H24">
+        <v>729500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="49">
+        <v>615500</v>
+      </c>
+      <c r="C25" s="49">
+        <v>629999</v>
+      </c>
+      <c r="D25">
+        <v>19</v>
+      </c>
+      <c r="E25">
+        <v>654500</v>
+      </c>
+      <c r="F25">
+        <v>687250</v>
+      </c>
+      <c r="G25">
+        <v>649000</v>
+      </c>
+      <c r="H25">
+        <v>729500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="49">
+        <v>635999</v>
+      </c>
+      <c r="C26" s="49">
+        <v>649500</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>654500</v>
+      </c>
+      <c r="F26">
+        <v>687250</v>
+      </c>
+      <c r="G26">
+        <v>649000</v>
+      </c>
+      <c r="H26">
+        <v>729500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="49">
+        <v>679500</v>
+      </c>
+      <c r="C27" s="49">
+        <v>709500</v>
+      </c>
+      <c r="D27">
+        <v>23</v>
+      </c>
+      <c r="E27">
+        <v>654500</v>
+      </c>
+      <c r="F27">
+        <v>687250</v>
+      </c>
+      <c r="G27">
+        <v>649000</v>
+      </c>
+      <c r="H27">
+        <v>729500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="49">
+        <v>695000</v>
+      </c>
+      <c r="C28" s="49">
+        <v>759000</v>
+      </c>
+      <c r="D28">
+        <v>45</v>
+      </c>
+      <c r="E28">
+        <v>654500</v>
+      </c>
+      <c r="F28">
+        <v>687250</v>
+      </c>
+      <c r="G28">
+        <v>649000</v>
+      </c>
+      <c r="H28">
+        <v>729500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="49">
+        <v>699000</v>
+      </c>
+      <c r="C29" s="49">
+        <v>769000</v>
+      </c>
+      <c r="D29">
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <v>654500</v>
+      </c>
+      <c r="F29">
+        <v>687250</v>
+      </c>
+      <c r="G29">
+        <v>649000</v>
+      </c>
+      <c r="H29">
+        <v>729500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="49">
+        <v>705000</v>
+      </c>
+      <c r="C30" s="49">
+        <v>785000</v>
+      </c>
+      <c r="D30">
+        <v>60</v>
+      </c>
+      <c r="E30">
+        <v>654500</v>
+      </c>
+      <c r="F30">
+        <v>687250</v>
+      </c>
+      <c r="G30">
+        <v>649000</v>
+      </c>
+      <c r="H30">
+        <v>729500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="49">
+        <v>725000</v>
+      </c>
+      <c r="C31" s="49">
+        <v>809000</v>
+      </c>
+      <c r="D31">
+        <v>56</v>
+      </c>
+      <c r="E31">
+        <v>654500</v>
+      </c>
+      <c r="F31">
+        <v>687250</v>
+      </c>
+      <c r="G31">
+        <v>649000</v>
+      </c>
+      <c r="H31">
+        <v>729500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="49">
+        <v>749500</v>
+      </c>
+      <c r="C32" s="49">
+        <v>749500</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <v>654500</v>
+      </c>
+      <c r="F32">
+        <v>687250</v>
+      </c>
+      <c r="G32">
+        <v>649000</v>
+      </c>
+      <c r="H32">
+        <v>729500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="49">
+        <v>762500</v>
+      </c>
+      <c r="C33" s="49">
+        <v>879000</v>
+      </c>
+      <c r="D33">
+        <v>97</v>
+      </c>
+      <c r="E33">
+        <v>654500</v>
+      </c>
+      <c r="F33">
+        <v>687250</v>
+      </c>
+      <c r="G33">
+        <v>649000</v>
+      </c>
+      <c r="H33">
+        <v>729500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="49">
+        <v>765500</v>
+      </c>
+      <c r="C34" s="49">
+        <v>939000</v>
+      </c>
+      <c r="D34">
+        <v>96</v>
+      </c>
+      <c r="E34">
+        <v>654500</v>
+      </c>
+      <c r="F34">
+        <v>687250</v>
+      </c>
+      <c r="G34">
+        <v>649000</v>
+      </c>
+      <c r="H34">
+        <v>729500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="49">
+        <v>399500</v>
+      </c>
+      <c r="C35" s="49">
+        <v>425000</v>
+      </c>
+      <c r="D35">
+        <v>18</v>
+      </c>
+      <c r="E35">
+        <v>674750</v>
+      </c>
+      <c r="F35">
+        <v>669749.5</v>
+      </c>
+      <c r="G35">
+        <v>699000</v>
+      </c>
+      <c r="H35">
+        <v>730499.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="49">
+        <v>419500</v>
+      </c>
+      <c r="C36" s="49">
+        <v>469999</v>
+      </c>
+      <c r="D36">
+        <v>25</v>
+      </c>
+      <c r="E36">
+        <v>674750</v>
+      </c>
+      <c r="F36">
+        <v>669749.5</v>
+      </c>
+      <c r="G36">
+        <v>699000</v>
+      </c>
+      <c r="H36">
+        <v>730499.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="49">
+        <v>424500</v>
+      </c>
+      <c r="C37" s="49">
+        <v>499999</v>
+      </c>
+      <c r="D37">
+        <v>30</v>
+      </c>
+      <c r="E37">
+        <v>674750</v>
+      </c>
+      <c r="F37">
+        <v>669749.5</v>
+      </c>
+      <c r="G37">
+        <v>699000</v>
+      </c>
+      <c r="H37">
+        <v>730499.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="49">
+        <v>469000</v>
+      </c>
+      <c r="C38" s="49">
+        <v>524999</v>
+      </c>
+      <c r="D38">
+        <v>45</v>
+      </c>
+      <c r="E38">
+        <v>674750</v>
+      </c>
+      <c r="F38">
+        <v>669749.5</v>
+      </c>
+      <c r="G38">
+        <v>699000</v>
+      </c>
+      <c r="H38">
+        <v>730499.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="49">
+        <v>579999</v>
+      </c>
+      <c r="C39" s="49">
+        <v>724999</v>
+      </c>
+      <c r="D39">
+        <v>56</v>
+      </c>
+      <c r="E39">
+        <v>674750</v>
+      </c>
+      <c r="F39">
+        <v>669749.5</v>
+      </c>
+      <c r="G39">
+        <v>699000</v>
+      </c>
+      <c r="H39">
+        <v>730499.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="49">
+        <v>649999</v>
+      </c>
+      <c r="C40" s="49">
+        <v>725000</v>
+      </c>
+      <c r="D40">
+        <v>43</v>
+      </c>
+      <c r="E40">
+        <v>674750</v>
+      </c>
+      <c r="F40">
+        <v>669749.5</v>
+      </c>
+      <c r="G40">
+        <v>699000</v>
+      </c>
+      <c r="H40">
+        <v>730499.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="49">
+        <v>689500</v>
+      </c>
+      <c r="C41" s="49">
+        <v>735999</v>
+      </c>
+      <c r="D41">
+        <v>21</v>
+      </c>
+      <c r="E41">
+        <v>674750</v>
+      </c>
+      <c r="F41">
+        <v>669749.5</v>
+      </c>
+      <c r="G41">
+        <v>699000</v>
+      </c>
+      <c r="H41">
+        <v>730499.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="49">
+        <v>709999</v>
+      </c>
+      <c r="C42" s="49">
+        <v>799500</v>
+      </c>
+      <c r="D42">
+        <v>25</v>
+      </c>
+      <c r="E42">
+        <v>674750</v>
+      </c>
+      <c r="F42">
+        <v>669749.5</v>
+      </c>
+      <c r="G42">
+        <v>699000</v>
+      </c>
+      <c r="H42">
+        <v>730499.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="49">
+        <v>725000</v>
+      </c>
+      <c r="C43" s="49">
+        <v>799000</v>
+      </c>
+      <c r="D43">
+        <v>29</v>
+      </c>
+      <c r="E43">
+        <v>674750</v>
+      </c>
+      <c r="F43">
+        <v>669749.5</v>
+      </c>
+      <c r="G43">
+        <v>699000</v>
+      </c>
+      <c r="H43">
+        <v>730499.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="49">
+        <v>729999</v>
+      </c>
+      <c r="C44" s="49">
+        <v>810000</v>
+      </c>
+      <c r="D44">
+        <v>48</v>
+      </c>
+      <c r="E44">
+        <v>674750</v>
+      </c>
+      <c r="F44">
+        <v>669749.5</v>
+      </c>
+      <c r="G44">
+        <v>699000</v>
+      </c>
+      <c r="H44">
+        <v>730499.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="49">
+        <v>730500</v>
+      </c>
+      <c r="C45" s="49">
+        <v>825000</v>
+      </c>
+      <c r="D45">
+        <v>50</v>
+      </c>
+      <c r="E45">
+        <v>674750</v>
+      </c>
+      <c r="F45">
+        <v>669749.5</v>
+      </c>
+      <c r="G45">
+        <v>699000</v>
+      </c>
+      <c r="H45">
+        <v>730499.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="49">
+        <v>739999</v>
+      </c>
+      <c r="C46" s="49">
+        <v>799000</v>
+      </c>
+      <c r="D46">
+        <v>26</v>
+      </c>
+      <c r="E46">
+        <v>674750</v>
+      </c>
+      <c r="F46">
+        <v>669749.5</v>
+      </c>
+      <c r="G46">
+        <v>699000</v>
+      </c>
+      <c r="H46">
+        <v>730499.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="49">
+        <v>590000</v>
+      </c>
+      <c r="C47" s="49">
+        <v>645000</v>
+      </c>
+      <c r="D47">
+        <v>21</v>
+      </c>
+      <c r="E47">
+        <v>793000</v>
+      </c>
+      <c r="F47">
+        <v>730500</v>
+      </c>
+      <c r="G47">
+        <v>725000</v>
+      </c>
+      <c r="H47">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="49">
+        <v>610500</v>
+      </c>
+      <c r="C48" s="49">
+        <v>650000</v>
+      </c>
+      <c r="D48">
+        <v>47</v>
+      </c>
+      <c r="E48">
+        <v>793000</v>
+      </c>
+      <c r="F48">
+        <v>730500</v>
+      </c>
+      <c r="G48">
+        <v>725000</v>
+      </c>
+      <c r="H48">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="49">
+        <v>629500</v>
+      </c>
+      <c r="C49" s="49">
+        <v>675000</v>
+      </c>
+      <c r="D49">
+        <v>43</v>
+      </c>
+      <c r="E49">
+        <v>793000</v>
+      </c>
+      <c r="F49">
+        <v>730500</v>
+      </c>
+      <c r="G49">
+        <v>725000</v>
+      </c>
+      <c r="H49">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="49">
+        <v>635000</v>
+      </c>
+      <c r="C50" s="49">
+        <v>650000</v>
+      </c>
+      <c r="D50">
+        <v>15</v>
+      </c>
+      <c r="E50">
+        <v>793000</v>
+      </c>
+      <c r="F50">
+        <v>730500</v>
+      </c>
+      <c r="G50">
+        <v>725000</v>
+      </c>
+      <c r="H50">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="49">
+        <v>650000</v>
+      </c>
+      <c r="C51" s="49">
+        <v>700000</v>
+      </c>
+      <c r="D51">
+        <v>21</v>
+      </c>
+      <c r="E51">
+        <v>793000</v>
+      </c>
+      <c r="F51">
+        <v>730500</v>
+      </c>
+      <c r="G51">
+        <v>725000</v>
+      </c>
+      <c r="H51">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="49">
+        <v>655999</v>
+      </c>
+      <c r="C52" s="49">
+        <v>700000</v>
+      </c>
+      <c r="D52">
+        <v>33</v>
+      </c>
+      <c r="E52">
+        <v>793000</v>
+      </c>
+      <c r="F52">
+        <v>730500</v>
+      </c>
+      <c r="G52">
+        <v>725000</v>
+      </c>
+      <c r="H52">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="49">
+        <v>675000</v>
+      </c>
+      <c r="C53" s="49">
+        <v>775000</v>
+      </c>
+      <c r="D53">
+        <v>50</v>
+      </c>
+      <c r="E53">
+        <v>793000</v>
+      </c>
+      <c r="F53">
+        <v>730500</v>
+      </c>
+      <c r="G53">
+        <v>725000</v>
+      </c>
+      <c r="H53">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="49">
+        <v>690000</v>
+      </c>
+      <c r="C54" s="49">
+        <v>790000</v>
+      </c>
+      <c r="D54">
+        <v>60</v>
+      </c>
+      <c r="E54">
+        <v>793000</v>
+      </c>
+      <c r="F54">
+        <v>730500</v>
+      </c>
+      <c r="G54">
+        <v>725000</v>
+      </c>
+      <c r="H54">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="49">
+        <v>695500</v>
+      </c>
+      <c r="C55" s="49">
+        <v>795000</v>
+      </c>
+      <c r="D55">
+        <v>48</v>
+      </c>
+      <c r="E55">
+        <v>793000</v>
+      </c>
+      <c r="F55">
+        <v>730500</v>
+      </c>
+      <c r="G55">
+        <v>725000</v>
+      </c>
+      <c r="H55">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="49">
+        <v>710000</v>
+      </c>
+      <c r="C56" s="49">
+        <v>799000</v>
+      </c>
+      <c r="D56">
+        <v>45</v>
+      </c>
+      <c r="E56">
+        <v>793000</v>
+      </c>
+      <c r="F56">
+        <v>730500</v>
+      </c>
+      <c r="G56">
+        <v>725000</v>
+      </c>
+      <c r="H56">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="49">
+        <v>730500</v>
+      </c>
+      <c r="C57" s="49">
+        <v>800000</v>
+      </c>
+      <c r="D57">
+        <v>68</v>
+      </c>
+      <c r="E57">
+        <v>793000</v>
+      </c>
+      <c r="F57">
+        <v>730500</v>
+      </c>
+      <c r="G57">
+        <v>725000</v>
+      </c>
+      <c r="H57">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="49">
+        <v>750000</v>
+      </c>
+      <c r="C58" s="49">
+        <v>825000</v>
+      </c>
+      <c r="D58">
+        <v>47</v>
+      </c>
+      <c r="E58">
+        <v>793000</v>
+      </c>
+      <c r="F58">
+        <v>730500</v>
+      </c>
+      <c r="G58">
+        <v>725000</v>
+      </c>
+      <c r="H58">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="49">
+        <v>755500</v>
+      </c>
+      <c r="C59" s="49">
+        <v>850000</v>
+      </c>
+      <c r="D59">
+        <v>60</v>
+      </c>
+      <c r="E59">
+        <v>793000</v>
+      </c>
+      <c r="F59">
+        <v>730500</v>
+      </c>
+      <c r="G59">
+        <v>725000</v>
+      </c>
+      <c r="H59">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="49">
+        <v>784500</v>
+      </c>
+      <c r="C60" s="49">
+        <v>850000</v>
+      </c>
+      <c r="D60">
+        <v>49</v>
+      </c>
+      <c r="E60">
+        <v>793000</v>
+      </c>
+      <c r="F60">
+        <v>730500</v>
+      </c>
+      <c r="G60">
+        <v>725000</v>
+      </c>
+      <c r="H60">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="49">
+        <v>799500</v>
+      </c>
+      <c r="C61" s="49">
+        <v>850000</v>
+      </c>
+      <c r="D61">
+        <v>58</v>
+      </c>
+      <c r="E61">
+        <v>793000</v>
+      </c>
+      <c r="F61">
+        <v>730500</v>
+      </c>
+      <c r="G61">
+        <v>725000</v>
+      </c>
+      <c r="H61">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="49">
+        <v>810000</v>
+      </c>
+      <c r="C62" s="49">
+        <v>999999</v>
+      </c>
+      <c r="D62">
+        <v>79</v>
+      </c>
+      <c r="E62">
+        <v>793000</v>
+      </c>
+      <c r="F62">
+        <v>730500</v>
+      </c>
+      <c r="G62">
+        <v>725000</v>
+      </c>
+      <c r="H62">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" s="49">
+        <v>825000</v>
+      </c>
+      <c r="C63" s="49">
+        <v>900000</v>
+      </c>
+      <c r="D63">
+        <v>90</v>
+      </c>
+      <c r="E63">
+        <v>793000</v>
+      </c>
+      <c r="F63">
+        <v>730500</v>
+      </c>
+      <c r="G63">
+        <v>725000</v>
+      </c>
+      <c r="H63">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="49">
+        <v>839500</v>
+      </c>
+      <c r="C64" s="49">
+        <v>925000</v>
+      </c>
+      <c r="D64">
+        <v>48</v>
+      </c>
+      <c r="E64">
+        <v>793000</v>
+      </c>
+      <c r="F64">
+        <v>730500</v>
+      </c>
+      <c r="G64">
+        <v>725000</v>
+      </c>
+      <c r="H64">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" s="49">
+        <v>850000</v>
+      </c>
+      <c r="C65" s="49">
+        <v>900000</v>
+      </c>
+      <c r="D65">
+        <v>21</v>
+      </c>
+      <c r="E65">
+        <v>793000</v>
+      </c>
+      <c r="F65">
+        <v>730500</v>
+      </c>
+      <c r="G65">
+        <v>725000</v>
+      </c>
+      <c r="H65">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="49">
+        <v>859500</v>
+      </c>
+      <c r="C66" s="49">
+        <v>950000</v>
+      </c>
+      <c r="D66">
+        <v>56</v>
+      </c>
+      <c r="E66">
+        <v>793000</v>
+      </c>
+      <c r="F66">
+        <v>730500</v>
+      </c>
+      <c r="G66">
+        <v>725000</v>
+      </c>
+      <c r="H66">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="49">
+        <v>872500</v>
+      </c>
+      <c r="C67" s="49">
+        <v>999000</v>
+      </c>
+      <c r="D67">
+        <v>120</v>
+      </c>
+      <c r="E67">
+        <v>793000</v>
+      </c>
+      <c r="F67">
+        <v>730500</v>
+      </c>
+      <c r="G67">
+        <v>725000</v>
+      </c>
+      <c r="H67">
+        <v>800000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>